--- a/biology/Zoologie/Bruant_de_Jankowski/Bruant_de_Jankowski.xlsx
+++ b/biology/Zoologie/Bruant_de_Jankowski/Bruant_de_Jankowski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emberiza jankowskii
 Le Bruant de Jankowski (Emberiza jankowskii) est une espèce de passereaux appartenant à la famille des Emberizidae.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau se trouve en Russie, en Chine et en Corée du Nord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se trouve en Russie, en Chine et en Corée du Nord.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se reproduit dans une grande diversité d'habitats ouverts de basse altitude, le plus souvent dans des prairies avec quelques buissons et petits arbres[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se reproduit dans une grande diversité d'habitats ouverts de basse altitude, le plus souvent dans des prairies avec quelques buissons et petits arbres
 Il est menacé par la perte de son habitat.
 </t>
         </is>
